--- a/experiments/coselog-wabo/data/filtered-log-v1/Recommendation Generation Results.xlsx
+++ b/experiments/coselog-wabo/data/filtered-log-v1/Recommendation Generation Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONUR\THESIS\ECLIPSE\thesis-tex\5_results_discussions\coselog-wabo\data\filtered-log-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONUR\THESIS\ECLIPSE\thesis-test\experiments\coselog-wabo\data\filtered-log-v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Number of Performance Indicators</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>Mncplty #5</t>
+  </si>
+  <si>
+    <t>Threshold = 25 %</t>
+  </si>
+  <si>
+    <t>M.  #1</t>
+  </si>
+  <si>
+    <t>M.  #2</t>
+  </si>
+  <si>
+    <t>M.  #3</t>
+  </si>
+  <si>
+    <t>M.  #4</t>
+  </si>
+  <si>
+    <t>M.  #5</t>
   </si>
 </sst>
 </file>
@@ -115,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -124,6 +142,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +401,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -396,7 +416,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -552,11 +572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227901536"/>
-        <c:axId val="227901928"/>
+        <c:axId val="233800776"/>
+        <c:axId val="233801168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227901536"/>
+        <c:axId val="233800776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +633,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227901928"/>
+        <c:crossAx val="233801168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -621,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227901928"/>
+        <c:axId val="233801168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +692,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227901536"/>
+        <c:crossAx val="233800776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -820,46 +840,64 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'k-3'!$C$6:$L$7</c:f>
+              <c:f>'k-3'!$C$6:$Q$7</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Mncplty #1</c:v>
+                    <c:v>M.  #1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Mncplty #2</c:v>
+                    <c:v>M.  #2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mncplty #3</c:v>
+                    <c:v>M.  #3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mncplty #4</c:v>
+                    <c:v>M.  #4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Mncplty #5</c:v>
+                    <c:v>M.  #5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Mncplty #1</c:v>
+                    <c:v>M.  #1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Mncplty #2</c:v>
+                    <c:v>M.  #2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Mncplty #3</c:v>
+                    <c:v>M.  #3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mncplty #4</c:v>
+                    <c:v>M.  #4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Mncplty #5</c:v>
+                    <c:v>M.  #5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>M.  #1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>M.  #2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>M.  #3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>M.  #4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>M.  #5</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Threshold = 25 %</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>Threshold = 50 %</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
                     <c:v>Threshold = 75 %</c:v>
                   </c:pt>
                 </c:lvl>
@@ -868,10 +906,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'k-3'!$C$8:$L$8</c:f>
+              <c:f>'k-3'!$C$8:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -879,27 +917,42 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -947,46 +1000,64 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'k-3'!$C$6:$L$7</c:f>
+              <c:f>'k-3'!$C$6:$Q$7</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Mncplty #1</c:v>
+                    <c:v>M.  #1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Mncplty #2</c:v>
+                    <c:v>M.  #2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mncplty #3</c:v>
+                    <c:v>M.  #3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mncplty #4</c:v>
+                    <c:v>M.  #4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Mncplty #5</c:v>
+                    <c:v>M.  #5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Mncplty #1</c:v>
+                    <c:v>M.  #1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Mncplty #2</c:v>
+                    <c:v>M.  #2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Mncplty #3</c:v>
+                    <c:v>M.  #3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mncplty #4</c:v>
+                    <c:v>M.  #4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Mncplty #5</c:v>
+                    <c:v>M.  #5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>M.  #1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>M.  #2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>M.  #3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>M.  #4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>M.  #5</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Threshold = 25 %</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>Threshold = 50 %</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
                     <c:v>Threshold = 75 %</c:v>
                   </c:pt>
                 </c:lvl>
@@ -995,38 +1066,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'k-3'!$C$9:$L$9</c:f>
+              <c:f>'k-3'!$C$9:$Q$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1074,46 +1160,64 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'k-3'!$C$6:$L$7</c:f>
+              <c:f>'k-3'!$C$6:$Q$7</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Mncplty #1</c:v>
+                    <c:v>M.  #1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Mncplty #2</c:v>
+                    <c:v>M.  #2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mncplty #3</c:v>
+                    <c:v>M.  #3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mncplty #4</c:v>
+                    <c:v>M.  #4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Mncplty #5</c:v>
+                    <c:v>M.  #5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Mncplty #1</c:v>
+                    <c:v>M.  #1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Mncplty #2</c:v>
+                    <c:v>M.  #2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Mncplty #3</c:v>
+                    <c:v>M.  #3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mncplty #4</c:v>
+                    <c:v>M.  #4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Mncplty #5</c:v>
+                    <c:v>M.  #5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>M.  #1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>M.  #2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>M.  #3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>M.  #4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>M.  #5</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Threshold = 25 %</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>Threshold = 50 %</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
                     <c:v>Threshold = 75 %</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1122,10 +1226,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'k-3'!$C$10:$L$10</c:f>
+              <c:f>'k-3'!$C$10:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>357</c:v>
                 </c:pt>
@@ -1154,6 +1258,21 @@
                   <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
@@ -1171,11 +1290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224530928"/>
-        <c:axId val="224531312"/>
+        <c:axId val="127097816"/>
+        <c:axId val="127098208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224530928"/>
+        <c:axId val="127097816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1351,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224531312"/>
+        <c:crossAx val="127098208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224531312"/>
+        <c:axId val="127098208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1410,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224530928"/>
+        <c:crossAx val="127097816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,7 +2948,7 @@
   <dimension ref="B6:T12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,7 +3067,7 @@
       </c>
       <c r="C9" s="2">
         <f>C11/C8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2964,7 +3083,7 @@
       </c>
       <c r="H9" s="2">
         <f>H11/H8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -3032,12 +3151,16 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>30</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3060,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,152 +3192,191 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="M6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <f>C11/C8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <f>H11/H8</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ref="D9:L9" si="0">E11/E8</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ref="M9" si="1">M11/M8</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -3253,32 +3415,70 @@
       <c r="L10" s="5">
         <v>338</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="M10" s="5">
+        <v>357</v>
+      </c>
+      <c r="N10" s="5">
+        <v>247</v>
+      </c>
+      <c r="O10" s="5">
+        <v>306</v>
+      </c>
+      <c r="P10" s="5">
+        <v>310</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>338</v>
+      </c>
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="C11" s="5">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>38</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>48</v>
+      </c>
+      <c r="M11" s="5">
+        <v>30</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
